--- a/reports/完整測試_中文標題驗證.xlsx
+++ b/reports/完整測試_中文標題驗證.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,8 @@
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="60" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="80" customWidth="1" min="5" max="5"/>
+    <col width="80" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,6 +482,16 @@
           <t>發布日期</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>摘要</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>重點分析</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -502,6 +514,12 @@
           <t>2025-10-13</t>
         </is>
       </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>新加坡在2025年第三季度的金融科技投資達到創紀錄的50億美元...</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -524,6 +542,12 @@
           <t>2025-10-12</t>
         </is>
       </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>馬來西亞央行宣布將發放五張數位銀行執照...</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -546,6 +570,13 @@
           <t>2025年10月11日</t>
         </is>
       </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>泰國央行啟動了數位泰銖的第二階段試點計劃...
+## 💡 市場洞察</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
